--- a/src/main/resources/LoginData.xlsx
+++ b/src/main/resources/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F374D-7337-4592-9D73-5048DB159E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BAC1A3-FF8A-4132-9557-F3395BB2DCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -36,7 +36,31 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Whatever</t>
+    <t>MyPasswordIsHere</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>123 main</t>
+  </si>
+  <si>
+    <t>Room 439</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>New jersey</t>
   </si>
 </sst>
 </file>
@@ -354,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,12 +394,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/LoginData.xlsx
+++ b/src/main/resources/LoginData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BAC1A3-FF8A-4132-9557-F3395BB2DCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B36E4-C8F6-472E-BD92-B5092DFDF3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>New jersey</t>
+  </si>
+  <si>
+    <t>new jersey</t>
   </si>
 </sst>
 </file>
@@ -378,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -402,7 +405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -412,8 +415,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -421,7 +427,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -429,7 +435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -439,5 +445,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/LoginData.xlsx
+++ b/src/main/resources/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196B36E4-C8F6-472E-BD92-B5092DFDF3C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2863537E-8F1D-43AA-82DB-751228330CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/LoginData.xlsx
+++ b/src/main/resources/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2863537E-8F1D-43AA-82DB-751228330CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3AE5B7-B771-41AC-A7BA-029B14F85264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/src/main/resources/LoginData.xlsx
+++ b/src/main/resources/LoginData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3AE5B7-B771-41AC-A7BA-029B14F85264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2925F8D-3A79-46F5-9223-F82D89AB2241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="636" yWindow="3084" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="DiologContent" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Username</t>
   </si>
@@ -64,6 +66,24 @@
   </si>
   <si>
     <t>new jersey</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>AliCreatedThis</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
+    <t>AC</t>
   </si>
 </sst>
 </file>
@@ -383,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -447,4 +467,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF879D89-F758-4C7F-BF70-BC7A0E97957A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D10DAA-A0B9-4BE4-A6EF-C4A68B91610A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/LoginData.xlsx
+++ b/src/main/resources/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2925F8D-3A79-46F5-9223-F82D89AB2241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942929BE-E45A-4058-A990-D02103A10526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="636" yWindow="3084" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,9 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -474,7 +472,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/LoginData.xlsx
+++ b/src/main/resources/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942929BE-E45A-4058-A990-D02103A10526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC706EA-45F8-44F3-A821-330F470737F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="3084" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="912" yWindow="2136" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -471,9 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF879D89-F758-4C7F-BF70-BC7A0E97957A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/src/main/resources/LoginData.xlsx
+++ b/src/main/resources/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC706EA-45F8-44F3-A821-330F470737F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B3A2D2-918D-4F66-9A47-D1914EB93AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="2136" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>AC</t>
+  </si>
+  <si>
+    <t>Integration Code</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -119,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,11 +478,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF879D89-F758-4C7F-BF70-BC7A0E97957A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -501,8 +514,25 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/LoginData.xlsx
+++ b/src/main/resources/LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeachEvening\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B3A2D2-918D-4F66-9A47-D1914EB93AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB03D984-AFEB-4462-8489-6E733428E507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
